--- a/Bug Reports/Inward LG Bug Report.xlsx
+++ b/Bug Reports/Inward LG Bug Report.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trade_finance\Bug Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06C178A-8976-4041-A6D8-FF92766FC7D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECC6DE3-1C16-44D0-9C02-8E2A43A0B220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="81">
   <si>
     <r>
       <t>System Name</t>
@@ -101,16 +101,6 @@
  the '(20)Undertaking Number' field for the correspondent letter date to fill it manually.</t>
   </si>
   <si>
-    <t>Letter Of Guarantee Inward event-&gt;date of issue field.</t>
-  </si>
-  <si>
-    <t>we can not select 
-previous date.</t>
-  </si>
-  <si>
-    <t>to be able to select previous date.</t>
-  </si>
-  <si>
     <t>Letter Of Guarantee Inward event
  -&gt; 23B field.</t>
   </si>
@@ -260,6 +250,65 @@
   </si>
   <si>
     <t>the ability to find it.</t>
+  </si>
+  <si>
+    <t>inward LG Claim event</t>
+  </si>
+  <si>
+    <t>the disabled 'recover amount' field is needless.</t>
+  </si>
+  <si>
+    <t>this field currently refere to the recovered amount from the margin, however in inward LG there is no margin, consequently this field is meaningless.</t>
+  </si>
+  <si>
+    <t>all the claims including (paid &amp; unpaid) viewed in
+claim NO lookup.</t>
+  </si>
+  <si>
+    <t>in 'claim NO' lookup, the user expect to see only the unpaid claims.</t>
+  </si>
+  <si>
+    <t>the naming of voucher entries is wrong for liability entries.</t>
+  </si>
+  <si>
+    <t>configuration level.</t>
+  </si>
+  <si>
+    <t>enquiry event.</t>
+  </si>
+  <si>
+    <t>you consider the customer number is mandatory field.</t>
+  </si>
+  <si>
+    <t>the user usually searchs by the reference of this product only, no need to fill the customer number.</t>
+  </si>
+  <si>
+    <t>inward LG amendment event.</t>
+  </si>
+  <si>
+    <t>missed event.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> currently you view the same small summary for all stages(the results should change with the viewed stage).</t>
+  </si>
+  <si>
+    <t>for each stage(event), when click on view button, bank team expects to give them the details of this event(all the details).</t>
+  </si>
+  <si>
+    <t>currently, no ability to save the operation date.</t>
+  </si>
+  <si>
+    <t>the date of issue in most case is different from the issue date of correspondent, therefore the team needs to save the operation date(operation date field is needed).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(23B)Expiry Type should be extracted from the fetched swift message.</t>
+  </si>
+  <si>
+    <t>not extracted from the selected swift message.</t>
+  </si>
+  <si>
+    <t>LG claim event-&gt;creation mode.</t>
   </si>
 </sst>
 </file>
@@ -785,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -821,7 +870,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="19"/>
@@ -882,7 +931,7 @@
     </row>
     <row r="5" spans="1:9" ht="30">
       <c r="A5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>16</v>
@@ -891,10 +940,10 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
         <v>18</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>17</v>
       </c>
       <c r="F5" s="14">
         <v>45434</v>
@@ -905,7 +954,7 @@
     </row>
     <row r="6" spans="1:9" ht="30">
       <c r="A6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>19</v>
@@ -926,9 +975,9 @@
         <v>45434</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="30">
+    <row r="7" spans="1:9" ht="45">
       <c r="A7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>22</v>
@@ -936,7 +985,7 @@
       <c r="C7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E7" t="s">
@@ -949,9 +998,9 @@
         <v>45434</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="45">
+    <row r="8" spans="1:9" ht="30">
       <c r="A8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>25</v>
@@ -960,10 +1009,10 @@
         <v>12</v>
       </c>
       <c r="D8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
         <v>26</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
       </c>
       <c r="F8" s="14">
         <v>45434</v>
@@ -974,7 +1023,7 @@
     </row>
     <row r="9" spans="1:9" ht="30">
       <c r="A9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>28</v>
@@ -985,7 +1034,7 @@
       <c r="D9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="9" t="s">
         <v>29</v>
       </c>
       <c r="F9" s="14">
@@ -997,7 +1046,7 @@
     </row>
     <row r="10" spans="1:9" ht="30">
       <c r="A10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>31</v>
@@ -1006,10 +1055,10 @@
         <v>12</v>
       </c>
       <c r="D10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
         <v>33</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>32</v>
       </c>
       <c r="F10" s="14">
         <v>45434</v>
@@ -1020,7 +1069,7 @@
     </row>
     <row r="11" spans="1:9" ht="30">
       <c r="A11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>34</v>
@@ -1031,7 +1080,7 @@
       <c r="D11" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="9" t="s">
         <v>36</v>
       </c>
       <c r="F11" s="14">
@@ -1041,35 +1090,35 @@
         <v>45434</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="45">
+    <row r="12" spans="1:9">
       <c r="A12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="9" t="s">
+      <c r="E12" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="F12" s="14">
+        <v>45434</v>
+      </c>
+      <c r="G12" s="14">
+        <v>45434</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="F12" s="14">
-        <v>45434</v>
-      </c>
-      <c r="G12" s="14">
-        <v>45434</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>13</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>12</v>
@@ -1077,7 +1126,7 @@
       <c r="D13" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="9" t="s">
         <v>41</v>
       </c>
       <c r="F13" s="14">
@@ -1089,18 +1138,18 @@
     </row>
     <row r="14" spans="1:9" ht="30">
       <c r="A14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" t="s">
         <v>44</v>
       </c>
       <c r="F14" s="14">
@@ -1112,7 +1161,7 @@
     </row>
     <row r="15" spans="1:9" ht="30">
       <c r="A15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>46</v>
@@ -1123,19 +1172,19 @@
       <c r="D15" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="9" t="s">
         <v>47</v>
       </c>
       <c r="F15" s="14">
-        <v>45434</v>
+        <v>45438</v>
       </c>
       <c r="G15" s="14">
-        <v>45434</v>
+        <v>45438</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30">
       <c r="A16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>49</v>
@@ -1144,10 +1193,10 @@
         <v>12</v>
       </c>
       <c r="D16" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" t="s">
         <v>51</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>50</v>
       </c>
       <c r="F16" s="14">
         <v>45438</v>
@@ -1156,9 +1205,9 @@
         <v>45438</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30">
+    <row r="17" spans="1:9">
       <c r="A17">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>52</v>
@@ -1169,7 +1218,7 @@
       <c r="D17" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="9" t="s">
         <v>54</v>
       </c>
       <c r="F17" s="14">
@@ -1179,12 +1228,12 @@
         <v>45438</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:9">
       <c r="A18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>12</v>
@@ -1192,8 +1241,8 @@
       <c r="D18" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>57</v>
+      <c r="E18" t="s">
+        <v>55</v>
       </c>
       <c r="F18" s="14">
         <v>45438</v>
@@ -1202,20 +1251,20 @@
         <v>45438</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:9">
       <c r="A19">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>58</v>
       </c>
       <c r="F19" s="14">
@@ -1225,21 +1274,21 @@
         <v>45438</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:9">
       <c r="A20">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" t="s">
         <v>60</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>61</v>
       </c>
       <c r="F20" s="14">
         <v>45438</v>
@@ -1248,27 +1297,208 @@
         <v>45438</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:9" ht="45">
       <c r="A21">
-        <v>18</v>
-      </c>
-      <c r="B21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>62</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E21" t="s">
-        <v>63</v>
-      </c>
       <c r="F21" s="14">
-        <v>45438</v>
+        <v>45439</v>
       </c>
       <c r="G21" s="14">
-        <v>45438</v>
+        <v>45439</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="30">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="14">
+        <v>45439</v>
+      </c>
+      <c r="G22" s="14">
+        <v>45439</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="30">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="14">
+        <v>45439</v>
+      </c>
+      <c r="G23" s="14">
+        <v>45439</v>
+      </c>
+      <c r="I23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="30">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="14">
+        <v>45439</v>
+      </c>
+      <c r="G24" s="14">
+        <v>45439</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="14">
+        <v>45439</v>
+      </c>
+      <c r="G25" s="14">
+        <v>45439</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="45">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" s="14">
+        <v>45440</v>
+      </c>
+      <c r="G26" s="14">
+        <v>45440</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="45">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" s="14">
+        <v>45440</v>
+      </c>
+      <c r="G27" s="14">
+        <v>45440</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="45">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" s="14">
+        <v>45447</v>
+      </c>
+      <c r="G28" s="14">
+        <v>45447</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="14">
+        <v>45447</v>
+      </c>
+      <c r="G29" s="14">
+        <v>45447</v>
       </c>
     </row>
   </sheetData>
